--- a/data/import/flashcardError.xlsx
+++ b/data/import/flashcardError.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svNam4\HK2\4KidStudy\4kidstudy-backend\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA368C34-94F8-4B49-8951-6C1BBFA5CD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F6B0DC-EC68-4D46-AFA6-C5BDFFD2D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED013ED6-0AA4-43BD-A953-7C9607C93FE0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>term</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC82B083-9229-4FFC-B9C1-099EAFF430FD}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,27 +555,44 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
